--- a/aca-docker/files/coursework/part2/Table_Simulation-values.xlsx
+++ b/aca-docker/files/coursework/part2/Table_Simulation-values.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\as10019\ACA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas3.cc.ic.ac.uk\nmd16\ComputationalAerodynamicsSandbox\aca-docker\files\coursework\part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74858117-F4F9-43D8-A278-C4C1328EB054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED535F1-B012-49F8-B5A2-E31D13689B72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CD09BEF-C2A4-47C3-97B4-6A618032A7ED}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7CD09BEF-C2A4-47C3-97B4-6A618032A7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B144EE93-AD12-4FC9-8F4F-B17B36B0A00A}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -711,6 +711,9 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
+      <c r="F12">
+        <v>263.8</v>
+      </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
@@ -780,8 +783,8 @@
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="1">
-        <v>288.14999999999998</v>
+      <c r="F19">
+        <v>263.8</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -792,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="F20">
-        <v>102.09</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -804,7 +807,7 @@
       </c>
       <c r="F21" s="1">
         <f>F24*F20</f>
-        <v>101.53074029814704</v>
+        <v>130.12068567788626</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -816,7 +819,7 @@
       </c>
       <c r="F22" s="1">
         <f>F25*F20</f>
-        <v>10.671310814994731</v>
+        <v>4.5439144706656212</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -840,7 +843,7 @@
       </c>
       <c r="F24">
         <f>COS((F5*3.14159265358979/180))</f>
-        <v>0.9945218953682734</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -852,7 +855,7 @@
       </c>
       <c r="F25">
         <f>SIN(F5*3.14159265358979/180)</f>
-        <v>0.10452846326765336</v>
+        <v>3.4899496702500934E-2</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -884,8 +887,8 @@
       <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="1">
-        <v>288.14999999999998</v>
+      <c r="F28">
+        <v>263.8</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -902,7 +905,7 @@
         <v>39</v>
       </c>
       <c r="F30" s="5">
-        <v>1</v>
+        <v>0.15243999999999999</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>17</v>
@@ -914,7 +917,7 @@
       </c>
       <c r="F31" s="3">
         <f>(F14*F20*F30)/F2</f>
-        <v>1.2506025E-4</v>
+        <v>2.4313417799999999E-5</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -949,7 +952,7 @@
       </c>
       <c r="F34">
         <f>0.5*F33*F14*F20*F20</f>
-        <v>23.910134501189255</v>
+        <v>38.889967479611492</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -961,7 +964,7 @@
       </c>
       <c r="F35">
         <f>SQRT(F34/F14)</f>
-        <v>4.4179720623639032</v>
+        <v>5.6344398326944871</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
@@ -972,7 +975,7 @@
         <v>45</v>
       </c>
       <c r="F36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>7</v>
@@ -984,7 +987,7 @@
       </c>
       <c r="F37" s="6">
         <f>F36*F31/F14/F35*2</f>
-        <v>1.1553943592094059E-5</v>
+        <v>7.0451326447152735E-6</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -999,7 +1002,7 @@
       </c>
       <c r="F38" s="6">
         <f>0.37*F30/F32^0.2</f>
-        <v>2.3345421745767148E-2</v>
+        <v>3.5587760909247439E-3</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>

--- a/aca-docker/files/coursework/part2/Table_Simulation-values.xlsx
+++ b/aca-docker/files/coursework/part2/Table_Simulation-values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas3.cc.ic.ac.uk\nmd16\ComputationalAerodynamicsSandbox\aca-docker\files\coursework\part2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED535F1-B012-49F8-B5A2-E31D13689B72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A60183-965F-4885-93ED-359C95444AD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7CD09BEF-C2A4-47C3-97B4-6A618032A7ED}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="21600" windowHeight="11925" xr2:uid="{7CD09BEF-C2A4-47C3-97B4-6A618032A7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B144EE93-AD12-4FC9-8F4F-B17B36B0A00A}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -975,7 +975,7 @@
         <v>45</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G36" t="s">
         <v>7</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="F37" s="6">
         <f>F36*F31/F14/F35*2</f>
-        <v>7.0451326447152735E-6</v>
+        <v>6.3406193802437459E-6</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
